--- a/data/trans_orig/P43E-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P43E-Clase-trans_orig.xlsx
@@ -623,19 +623,19 @@
         <v>98262</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>81427</v>
+        <v>82269</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>114794</v>
+        <v>115425</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3868594101772572</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3205781048814391</v>
+        <v>0.3238960339062746</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4519458829325829</v>
+        <v>0.4544308654056106</v>
       </c>
     </row>
     <row r="5">
@@ -652,19 +652,19 @@
         <v>155737</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>139205</v>
+        <v>138574</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>172572</v>
+        <v>171730</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6131405898227428</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5480541170674167</v>
+        <v>0.5455691345943894</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6794218951185599</v>
+        <v>0.6761039660937251</v>
       </c>
     </row>
     <row r="6">
@@ -714,19 +714,19 @@
         <v>98943</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>82418</v>
+        <v>81333</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>116699</v>
+        <v>115724</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3722684072576524</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3100940683458623</v>
+        <v>0.3060127783792524</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4390761400593449</v>
+        <v>0.4354078518977641</v>
       </c>
     </row>
     <row r="8">
@@ -743,19 +743,19 @@
         <v>166840</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>149084</v>
+        <v>150059</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>183365</v>
+        <v>184450</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6277315927423476</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5609238599406551</v>
+        <v>0.5645921481022359</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6899059316541377</v>
+        <v>0.6939872216207476</v>
       </c>
     </row>
     <row r="9">
@@ -805,19 +805,19 @@
         <v>47986</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>37254</v>
+        <v>36223</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>60162</v>
+        <v>62231</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2780077579696004</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2158359443373472</v>
+        <v>0.2098610096188497</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3485542365070558</v>
+        <v>0.3605378354058639</v>
       </c>
     </row>
     <row r="11">
@@ -834,19 +834,19 @@
         <v>124619</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>112443</v>
+        <v>110374</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>135351</v>
+        <v>136382</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7219922420303996</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6514457634929439</v>
+        <v>0.6394621645941362</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7841640556626527</v>
+        <v>0.7901389903811504</v>
       </c>
     </row>
     <row r="12">
@@ -896,19 +896,19 @@
         <v>110441</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>91804</v>
+        <v>92059</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>130374</v>
+        <v>129079</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2041056782762632</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1696627512883683</v>
+        <v>0.1701339511082912</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2409449387288388</v>
+        <v>0.2385508213521292</v>
       </c>
     </row>
     <row r="14">
@@ -925,19 +925,19 @@
         <v>430655</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>410722</v>
+        <v>412017</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>449292</v>
+        <v>449037</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7958943217237369</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7590550612711612</v>
+        <v>0.7614491786478709</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8303372487116317</v>
+        <v>0.8298660488917088</v>
       </c>
     </row>
     <row r="15">
@@ -987,19 +987,19 @@
         <v>71286</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>55791</v>
+        <v>56387</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>87956</v>
+        <v>90643</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1502234762741834</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1175688366919339</v>
+        <v>0.1188250610088998</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1853517546110009</v>
+        <v>0.1910145688302619</v>
       </c>
     </row>
     <row r="17">
@@ -1016,19 +1016,19 @@
         <v>403249</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>386579</v>
+        <v>383892</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>418744</v>
+        <v>418148</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8497765237258166</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8146482453889996</v>
+        <v>0.8089854311697381</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8824311633080661</v>
+        <v>0.8811749389911004</v>
       </c>
     </row>
     <row r="18">
@@ -1078,19 +1078,19 @@
         <v>89505</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>72765</v>
+        <v>72395</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>109198</v>
+        <v>108230</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1667350209673987</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1355510233739484</v>
+        <v>0.134861826106301</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2034197642526525</v>
+        <v>0.2016165041537034</v>
       </c>
     </row>
     <row r="20">
@@ -1107,19 +1107,19 @@
         <v>447305</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>427612</v>
+        <v>428580</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>464045</v>
+        <v>464415</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8332649790326012</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7965802357473476</v>
+        <v>0.7983834958462969</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8644489766260516</v>
+        <v>0.8651381738936991</v>
       </c>
     </row>
     <row r="21">
@@ -1169,19 +1169,19 @@
         <v>516422</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>470907</v>
+        <v>473707</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>559354</v>
+        <v>558023</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2300497456376442</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2097741709213934</v>
+        <v>0.2110212454492307</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2491745048387944</v>
+        <v>0.2485813324808225</v>
       </c>
     </row>
     <row r="23">
@@ -1198,19 +1198,19 @@
         <v>1728407</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1685475</v>
+        <v>1686806</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1773922</v>
+        <v>1771122</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7699502543623558</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7508254951612058</v>
+        <v>0.7514186675191777</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7902258290786066</v>
+        <v>0.7889787545507699</v>
       </c>
     </row>
     <row r="24">
@@ -1380,19 +1380,19 @@
         <v>80568</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>65765</v>
+        <v>66388</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>96129</v>
+        <v>97621</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3039039365585043</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2480677767954954</v>
+        <v>0.2504173338062614</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3626019201324752</v>
+        <v>0.3682268953696973</v>
       </c>
     </row>
     <row r="5">
@@ -1409,19 +1409,19 @@
         <v>184542</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>168981</v>
+        <v>167489</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>199345</v>
+        <v>198722</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6960960634414957</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6373980798675248</v>
+        <v>0.6317731046303027</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7519322232045046</v>
+        <v>0.7495826661937387</v>
       </c>
     </row>
     <row r="6">
@@ -1471,19 +1471,19 @@
         <v>86160</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>71492</v>
+        <v>71003</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>103689</v>
+        <v>102531</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2935978215785198</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2436168901670565</v>
+        <v>0.2419510832716448</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3533313491779791</v>
+        <v>0.3493848161376887</v>
       </c>
     </row>
     <row r="8">
@@ -1500,19 +1500,19 @@
         <v>207302</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>189773</v>
+        <v>190931</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>221970</v>
+        <v>222459</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7064021784214801</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6466686508220205</v>
+        <v>0.6506151838623112</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7563831098329433</v>
+        <v>0.7580489167283548</v>
       </c>
     </row>
     <row r="9">
@@ -1562,19 +1562,19 @@
         <v>15677</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9623</v>
+        <v>9695</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24188</v>
+        <v>23928</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1383400432332736</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08491546065826905</v>
+        <v>0.08555337591932032</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2134500659590385</v>
+        <v>0.2111578718806296</v>
       </c>
     </row>
     <row r="11">
@@ -1591,19 +1591,19 @@
         <v>97642</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>89131</v>
+        <v>89391</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>103696</v>
+        <v>103624</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8616599567667265</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7865499340409615</v>
+        <v>0.7888421281193698</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.915084539341731</v>
+        <v>0.9144466240806796</v>
       </c>
     </row>
     <row r="12">
@@ -1653,19 +1653,19 @@
         <v>83457</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>68109</v>
+        <v>67269</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>103625</v>
+        <v>102000</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1530205798251769</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1248801927830065</v>
+        <v>0.1233395556092197</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1900000650310684</v>
+        <v>0.1870192083141734</v>
       </c>
     </row>
     <row r="14">
@@ -1682,19 +1682,19 @@
         <v>461940</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>441772</v>
+        <v>443397</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>477288</v>
+        <v>478128</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8469794201748231</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8099999349689315</v>
+        <v>0.8129807916858266</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8751198072169936</v>
+        <v>0.8766604443907803</v>
       </c>
     </row>
     <row r="15">
@@ -1744,19 +1744,19 @@
         <v>25009</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>15590</v>
+        <v>16406</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>36294</v>
+        <v>36448</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05793576484793449</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03611514510856945</v>
+        <v>0.03800503741173166</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08407861087360975</v>
+        <v>0.08443564947921972</v>
       </c>
     </row>
     <row r="17">
@@ -1773,19 +1773,19 @@
         <v>406658</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>395373</v>
+        <v>395219</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>416077</v>
+        <v>415261</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9420642351520655</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9159213891263911</v>
+        <v>0.9155643505207803</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9638848548914309</v>
+        <v>0.9619949625882683</v>
       </c>
     </row>
     <row r="18">
@@ -1835,19 +1835,19 @@
         <v>61089</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>47493</v>
+        <v>47750</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>76653</v>
+        <v>78421</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1225715079687491</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09529309918530364</v>
+        <v>0.09580847194288321</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1538006949440579</v>
+        <v>0.1573491395196213</v>
       </c>
     </row>
     <row r="20">
@@ -1864,19 +1864,19 @@
         <v>437302</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>421738</v>
+        <v>419970</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>450898</v>
+        <v>450641</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.877428492031251</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8461993050559421</v>
+        <v>0.8426508604803786</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9047069008146964</v>
+        <v>0.9041915280571168</v>
       </c>
     </row>
     <row r="21">
@@ -1926,19 +1926,19 @@
         <v>351959</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>317204</v>
+        <v>319978</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>387177</v>
+        <v>389211</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1639041034014769</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1477192143322786</v>
+        <v>0.1490111336897309</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1803049025058641</v>
+        <v>0.181252227897138</v>
       </c>
     </row>
     <row r="23">
@@ -1955,19 +1955,19 @@
         <v>1795387</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1760169</v>
+        <v>1758135</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1830142</v>
+        <v>1827368</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8360958965985231</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8196950974941358</v>
+        <v>0.8187477721028618</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8522807856677214</v>
+        <v>0.8509888663102692</v>
       </c>
     </row>
     <row r="24">
@@ -2137,19 +2137,19 @@
         <v>119240</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>106034</v>
+        <v>104643</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>132466</v>
+        <v>131977</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.47716227031633</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.424317127902695</v>
+        <v>0.4187512429178133</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5300887026530587</v>
+        <v>0.5281300004136456</v>
       </c>
     </row>
     <row r="5">
@@ -2166,19 +2166,19 @@
         <v>130654</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>117428</v>
+        <v>117917</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>143860</v>
+        <v>145251</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.52283772968367</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4699112973469414</v>
+        <v>0.4718699995863543</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5756828720973055</v>
+        <v>0.5812487570821864</v>
       </c>
     </row>
     <row r="6">
@@ -2228,19 +2228,19 @@
         <v>90760</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>77547</v>
+        <v>78311</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>103771</v>
+        <v>104110</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.394418846149227</v>
+        <v>0.3944188461492271</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3369973021646165</v>
+        <v>0.3403173276866308</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4509600036589795</v>
+        <v>0.4524350598418823</v>
       </c>
     </row>
     <row r="8">
@@ -2257,19 +2257,19 @@
         <v>139351</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>126340</v>
+        <v>126001</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>152564</v>
+        <v>151800</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6055811538507728</v>
+        <v>0.6055811538507729</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5490399963410205</v>
+        <v>0.547564940158118</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6630026978353836</v>
+        <v>0.6596826723133695</v>
       </c>
     </row>
     <row r="9">
@@ -2319,19 +2319,19 @@
         <v>24547</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17563</v>
+        <v>18201</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>31340</v>
+        <v>31851</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3015478625438895</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2157554586525343</v>
+        <v>0.2235926036959908</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3849953857459738</v>
+        <v>0.3912660640792173</v>
       </c>
     </row>
     <row r="11">
@@ -2348,19 +2348,19 @@
         <v>56857</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>50064</v>
+        <v>49553</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>63841</v>
+        <v>63203</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6984521374561103</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6150046142540263</v>
+        <v>0.6087339359207826</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7842445413474657</v>
+        <v>0.7764073963040092</v>
       </c>
     </row>
     <row r="12">
@@ -2410,19 +2410,19 @@
         <v>70715</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>57981</v>
+        <v>57456</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>84129</v>
+        <v>86051</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.1779088884645282</v>
+        <v>0.1779088884645281</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.145872749807562</v>
+        <v>0.1445519179492646</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2116568271647944</v>
+        <v>0.2164935044810359</v>
       </c>
     </row>
     <row r="14">
@@ -2439,19 +2439,19 @@
         <v>326761</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>313347</v>
+        <v>311425</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>339495</v>
+        <v>340020</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8220911115354718</v>
+        <v>0.8220911115354717</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7883431728352055</v>
+        <v>0.7835064955189641</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.854127250192438</v>
+        <v>0.8554480820507353</v>
       </c>
     </row>
     <row r="15">
@@ -2501,19 +2501,19 @@
         <v>31170</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>23022</v>
+        <v>23070</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>41235</v>
+        <v>40504</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09553251675277326</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07056005312806109</v>
+        <v>0.07070611168524332</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1263796976787371</v>
+        <v>0.1241400188840432</v>
       </c>
     </row>
     <row r="17">
@@ -2530,19 +2530,19 @@
         <v>295106</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>285041</v>
+        <v>285772</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>303254</v>
+        <v>303206</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9044674832472268</v>
+        <v>0.9044674832472266</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.873620302321263</v>
+        <v>0.875859981115957</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9294399468719392</v>
+        <v>0.9292938883147569</v>
       </c>
     </row>
     <row r="18">
@@ -2592,19 +2592,19 @@
         <v>38069</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>28670</v>
+        <v>29017</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>49266</v>
+        <v>48154</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1339160899178538</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1008542137197805</v>
+        <v>0.1020755982733873</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1733056308237905</v>
+        <v>0.1693950174904036</v>
       </c>
     </row>
     <row r="20">
@@ -2621,19 +2621,19 @@
         <v>246204</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>235007</v>
+        <v>236119</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>255603</v>
+        <v>255256</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8660839100821461</v>
+        <v>0.866083910082146</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8266943691762095</v>
+        <v>0.8306049825095964</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8991457862802194</v>
+        <v>0.8979244017266127</v>
       </c>
     </row>
     <row r="21">
@@ -2683,19 +2683,19 @@
         <v>374501</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>346571</v>
+        <v>345898</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>403858</v>
+        <v>403063</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2386214135343034</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2208251826775166</v>
+        <v>0.2203967825139121</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2573274105854805</v>
+        <v>0.2568204958152391</v>
       </c>
     </row>
     <row r="23">
@@ -2712,19 +2712,19 @@
         <v>1194933</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1165576</v>
+        <v>1166371</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1222863</v>
+        <v>1223536</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7613785864656966</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7426725894145195</v>
+        <v>0.7431795041847609</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7791748173224832</v>
+        <v>0.7796032174860879</v>
       </c>
     </row>
     <row r="24">
